--- a/data/financial_statements/soci/GE.xlsx
+++ b/data/financial_statements/soci/GE.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,3832 +608,3916 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>21786000000</v>
+      </c>
+      <c r="C2">
         <v>19084000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>18646000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>17040000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20303000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>18569000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18253000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>17071000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21009000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18529000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16805000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>19490000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>21245000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>23360000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>23414000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>22202000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16670000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>23392000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>29162000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>27788000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>12639000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>30662000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>29097000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>26881000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>28864000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>29266000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>33494000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>27845000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>33892000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>28028000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>29226000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>26239000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>19269000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>32107000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>32260000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>33548000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7582000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>35661000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>35059000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>34943000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.073</v>
+      </c>
+      <c r="C3">
         <v>0.0277</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0215</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0018</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.0336</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0022</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0862</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1241</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0111</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2068</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.2823</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.1222</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.2744</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0014</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.1971</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.201</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3189</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-0.2371</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0022</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0337</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>-0.5621</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0477</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.1313</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0346</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.1484</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0442</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.146</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0612</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.7589</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.127</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.094</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.2179</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1.5414</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0997</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0798</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0399</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.8054</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0164</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0368</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0039</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>15467000000</v>
+      </c>
+      <c r="C4">
         <v>14371000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>13244000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12453000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14339000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13402000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13618000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12537000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15770000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14041000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>13633000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14427000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13904000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17328000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>17412000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>16208000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8896000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>17847000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>21749000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>20911000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>10069000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>23671000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>21623000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>20230000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>23942000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>20966000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>22383000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>20361000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>23584000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>19855000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>20572000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>18682000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>25436000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>19740000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>20006000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>18522000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>24580000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>19455000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>18491000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>17315000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>6319000000</v>
+      </c>
+      <c r="C5">
         <v>4713000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5402000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4587000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5964000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5167000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4635000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4534000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5239000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4488000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3172000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5063000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7341000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>6032000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6002000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5994000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7774000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5545000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7413000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>6877000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2570000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>6991000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>7474000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>6651000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4922000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>8300000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>11111000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>7484000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>10308000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>8173000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>8654000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>7557000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-6167000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>12367000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>12254000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>15026000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-16998000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>16206000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>16568000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>17628000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>789000000</v>
+      </c>
+      <c r="C6">
         <v>686000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>696000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>641000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>705000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>627000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>604000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>561000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>636000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>595000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>611000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>723000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>3543000000</v>
+      </c>
+      <c r="C7">
         <v>2868000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2720000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3651000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3341000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2745000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2863000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2894000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3292000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3240000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3133000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3086000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3525000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3392000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3591000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3474000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2251000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4185000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>4412000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>4209000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1553000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5002000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>4285000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4477000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4104000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4581000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5186000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4867000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>6507000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4553000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4672000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4706000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-2590000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>6318000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>6273000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7962000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-7211000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8680000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>8538000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8766000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1987000000</v>
+      </c>
+      <c r="C8">
         <v>1159000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1986000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>295000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1918000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1795000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1168000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1079000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1311000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>653000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1449000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1254000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>696000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1900000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1667000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2520000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1945000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-20613000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3001000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2668000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-586000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1042000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3189000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2174000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>818000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>3719000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>5925000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2617000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3801000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>3620000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>3982000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2851000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-3577000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>6049000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5981000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>7064000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-9787000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>7526000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>8030000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>8862000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>390000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>387000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>397000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>418000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>393000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>460000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>444000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>742000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>714000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>968000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>815000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>955000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>416000000</v>
+      </c>
+      <c r="C10">
         <v>390000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>394000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>406000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>426000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>462000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>488000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>500000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>420000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>526000000</v>
-      </c>
-      <c r="K10">
-        <v>561000000</v>
       </c>
       <c r="L10">
         <v>561000000</v>
       </c>
       <c r="M10">
+        <v>561000000</v>
+      </c>
+      <c r="N10">
         <v>-346000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1279000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>929000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1065000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1038000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1155000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1291000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1282000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1110000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1232000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1174000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1139000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1002000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>961000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1326000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1736000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1235000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>897000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>713000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>618000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-2042000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1325000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1299000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2141000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-4778000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2445000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2600000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2603000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>249000000</v>
+      </c>
+      <c r="C11">
         <v>-1214000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-2230000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-819000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-5386000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1212000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-2204000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-840000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1268000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-2272000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>150000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5054000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-326000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-3149000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-1964000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-1398000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-1482000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-2349000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-1764000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2393000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-12579000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-295000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-2062000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-2227000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>78000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-1645000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-2102000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-2378000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-572000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-1570000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-1370000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-1231000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4242000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-2845000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-2905000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-3745000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>7395000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-3906000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-4297000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-4723000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>2237000000</v>
+      </c>
+      <c r="C12">
         <v>-55000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-244000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-525000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-3468000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>584000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-1037000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>238000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2580000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-1620000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-1298000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6308000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>369000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-1249000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-296000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1122000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>462000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-22962000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1236000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>277000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-13165000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>746000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1127000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-53000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>895000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2074000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3824000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>238000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1903000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2050000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2612000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1621000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>664000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>3204000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3076000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3319000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-2392000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>3620000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>3733000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4139000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-65000000</v>
+      </c>
+      <c r="C13">
         <v>21000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>317000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>204000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>36000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-466000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>142000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>102000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-483000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-160000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>54000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>552000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>41000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-181000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>140000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-413000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>52000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>504000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-50000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-2114000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-551000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-38000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-105000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-1435000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>18000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>461000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-177000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>742000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>135000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>799000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>6294000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-439000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>401000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>192000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>619000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>53000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>348000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>310000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>508000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2302000000</v>
+      </c>
+      <c r="C14">
         <v>-76000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-561000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-729000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3504000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>582000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-571000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>96000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2478000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-1137000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-1138000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6254000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-183000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-1290000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-115000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>982000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>875000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-23014000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>732000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>327000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-11051000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1297000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1165000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>52000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2330000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2056000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3363000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>415000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1161000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1915000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1813000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-4673000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1103000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2803000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2884000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2700000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-2445000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3272000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3423000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3631000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>97000000</v>
+      </c>
+      <c r="C15">
         <v>73000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>67000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>52000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>56000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>52000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>57000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>72000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>193000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>46000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>192000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>43000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>190000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>42000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>188000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>40000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>186000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>39000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>185000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>37000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>184000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>36000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>182000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>34000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>182000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>33000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>152000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>289000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>18000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>16000000</v>
+      </c>
+      <c r="C16">
         <v>4000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>19000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>28000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-73000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-3000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-51000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-145000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>34000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-8000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>40000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-23000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>57000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>99000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-90000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-132000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>34000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-54000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-169000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-38000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-104000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-6000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-76000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-86000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-121000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>103000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>39000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>225000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-35000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>187000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-28000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-47000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>158000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-10000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>166000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-16000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>2125000000</v>
+      </c>
+      <c r="C17">
         <v>-238000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-857000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-1094000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-3900000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1205000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1188000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-2874000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2443000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1190000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-2179000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6156000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>538000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-9465000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-61000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3549000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>575000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-22808000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>615000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-1184000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-11002000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1324000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>875000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-117000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2156000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1994000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2756000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-61000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>6283000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2506000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-1360000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-13573000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>5152000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>3537000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3545000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2999000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>3206000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>3191000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3133000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>3527000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-0.21</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.78</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.99</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-3.55</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.09</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1.12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-2.64</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.24</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1.12</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-2.08</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5.6</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.48</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-8.640000000000001</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-0.08</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3.2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-20.96</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-1.12</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-9.039999999999999</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.68</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.12</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3.2</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1.76</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2.4</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-0.08</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>5.12</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-1.04</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-10.8</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>4.08</v>
-      </c>
-      <c r="AH18">
-        <v>2.8</v>
       </c>
       <c r="AI18">
         <v>2.8</v>
       </c>
       <c r="AJ18">
+        <v>2.8</v>
+      </c>
+      <c r="AK18">
         <v>2.4</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3.36</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2.48</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2.4</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2.72</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-0.21</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.78</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.99</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-3.55</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.08</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1.12</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-2.64</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.16</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1.12</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-2.08</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5.6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.48</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-8.640000000000001</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-0.08</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3.28</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-20.96</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-1.12</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-9.039999999999999</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1.68</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1.04</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3.12</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1.76</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2.4</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-0.08</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>5.12</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-1.04</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-10.8</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>4.08</v>
-      </c>
-      <c r="AH19">
-        <v>2.8</v>
       </c>
       <c r="AI19">
         <v>2.8</v>
       </c>
       <c r="AJ19">
+        <v>2.8</v>
+      </c>
+      <c r="AK19">
         <v>2.4</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>3.28</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2.48</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2.4</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2.72</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>1091000000</v>
+      </c>
+      <c r="C20">
         <v>1095000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1099000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1100000000</v>
-      </c>
-      <c r="E20">
-        <v>1098000000</v>
       </c>
       <c r="F20">
         <v>1098000000</v>
       </c>
       <c r="G20">
+        <v>1098000000</v>
+      </c>
+      <c r="H20">
         <v>1097000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1096000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1094000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1095000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1093750000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1092750000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1091000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1091250000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1090500000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1088875000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1086375000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1086750000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1086000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1085375000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1085875000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1083125000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1083875000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1089250000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1128125000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1113000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1134875000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1161000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1218125000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1262875000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1260875000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1258375000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1255625000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1254875000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1253875000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1255625000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1277750000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1268875000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1282875000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1296750000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>1097000000</v>
+      </c>
+      <c r="C21">
         <v>1095000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1099000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1100000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1098000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1105000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1097000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1101000000</v>
-      </c>
-      <c r="I21">
-        <v>1095000000</v>
       </c>
       <c r="J21">
         <v>1095000000</v>
       </c>
       <c r="K21">
+        <v>1095000000</v>
+      </c>
+      <c r="L21">
         <v>1093750000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1093625000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1091000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1091250000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1090500000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1088875000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1086375000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1086750000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1087375000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1087000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1085875000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1091500000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1095000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1101375000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1141250000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1127000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1148375000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1172875000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1227625000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1271625000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1269750000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1258375000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1265375000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1264875000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1263750000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1265375000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1286125000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1277875000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1291000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1304125000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.29</v>
+      </c>
+      <c r="C22">
         <v>0.247</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2897</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2692</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2937</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2783</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2539</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2656</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2494</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2422</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1888</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.2598</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.3455</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2582</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2563</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.27</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.4663</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.237</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2542</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2475</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2033</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.228</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2569</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2474</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1705</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2836</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.3317</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2688</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.3041</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2916</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2961</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.288</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-0.32</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3852</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.3799</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.4479</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-2.2419</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.4544</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.4726</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.5044999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.0912</v>
+      </c>
+      <c r="C23">
         <v>0.0607</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1065</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.0173</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.0945</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.09669999999999999</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.064</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.06320000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.0624</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.0352</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.0862</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.0643</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.0328</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0813</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0712</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1135</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1167</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-0.8812</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1029</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.096</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.0464</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.034</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1096</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.0809</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.0283</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1271</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1769</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.094</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1122</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1292</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1362</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1087</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-0.1856</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1884</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1854</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2106</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-1.2908</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.211</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.229</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.2536</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.1027</v>
+      </c>
+      <c r="C24">
         <v>-0.0029</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-0.0131</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.0308</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.1708</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0315</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.0568</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.0139</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.1228</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.08740000000000001</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-0.0772</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.3237</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.0174</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-0.0535</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-0.0126</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.0505</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.0277</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-0.9816</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.0424</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.01</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-1.0416</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0243</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0387</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-0.002</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.031</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0709</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1142</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.008500000000000001</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.0561</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.0731</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.08939999999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.0618</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.0345</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.0998</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.0954</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.0989</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-0.3155</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1015</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1065</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1185</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.0975</v>
+      </c>
+      <c r="C25">
         <v>-0.0125</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.046</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.06419999999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.1921</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0649</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.06510000000000001</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.1684</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.1163</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.06419999999999999</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-0.1297</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.3159</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.0253</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-0.4052</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-0.0026</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.1599</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.0345</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-0.975</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.0211</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-0.0426</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-0.8705000000000001</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0432</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0301</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-0.0044</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.0747</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.06809999999999999</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.0823</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-0.0022</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.1854</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.08939999999999999</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-0.0465</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-0.5173</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.2674</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.1102</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1099</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.08939999999999999</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.4228</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.0895</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.08939999999999999</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.1009</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>1803000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2665000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1780000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2677000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2521000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1939000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1832000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2075000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1815000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-690000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2033000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>48000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3400000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2994000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3882000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3430000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-19305000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>4916000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4542000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>180000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3069000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4858000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3906000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>4247000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>4855000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>7220000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3827000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>5094000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4885000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>5170000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>3952000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-2444000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>7474000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>6187000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>9253000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-11737000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>10103000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>10296000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>11171000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1987000000</v>
+      </c>
+      <c r="C27">
         <v>1159000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1986000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>295000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1918000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1795000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1168000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1079000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1311000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>653000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1449000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1254000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>696000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1900000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1667000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2520000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1945000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-20613000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>3001000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2668000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-586000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1042000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3189000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2174000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>818000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3719000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>5925000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2617000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3801000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3620000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3982000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2851000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-3577000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>6049000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>5981000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>7064000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-9787000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>7526000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>8030000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>8862000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2302000000</v>
+      </c>
+      <c r="C28">
         <v>-76000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-561000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-729000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-3504000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>582000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-571000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>97000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2478000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1137000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-1138000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6254000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-184000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-1290000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-115000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>983000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>874000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-23014000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>732000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>328000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-11049000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1297000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1164000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>52000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2331000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2056000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3363000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>415000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2645000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1915000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1813000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-4673000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1103000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2803000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2884000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2700000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-2445000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>3272000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3423000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>3631000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-64000000</v>
+      </c>
+      <c r="C29">
         <v>-85000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-210000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-286000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-339000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>602000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-564000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-2894000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>161000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-58000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-993000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-21000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>905000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-8093000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>219000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2663000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-14000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>155000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-63000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-1441000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>179000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-106000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-146000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-239000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-105000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-541000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-308000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3758000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>629000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-2947000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-8936000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>4236000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>706000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>661000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>252000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5810000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-91000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-124000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-120000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2238000000</v>
+      </c>
+      <c r="C30">
         <v>-160000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-771000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1014000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-3842000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1184000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1135000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-2798000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2640000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1195000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-2132000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>6233000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>722000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-9383000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>104000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3645000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>860000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-22859000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>669000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-1113000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-10872000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1191000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1019000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-187000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2330000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1951000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2823000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>107000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6403000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2545000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-1134000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-13608000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>5339000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3509000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3545000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2952000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>3364000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>3181000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3299000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3511000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.01</v>
+      </c>
+      <c r="C31">
         <v>-0.14</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.59</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.74</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-3.24</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.54</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.57</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.02</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.1</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.04</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-1.2</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5.6</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>7.1</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-8.640000000000001</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-0.24</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.8</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.48</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-21.12</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.64</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.24</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-10.32</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.28</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.96</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.08</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.84</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.92</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>2.88</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.24</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2.08</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.52</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.36</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-3.6</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.88</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>2.24</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>2.32</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>2.16</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-2</v>
-      </c>
-      <c r="AL31">
-        <v>2.56</v>
       </c>
       <c r="AM31">
         <v>2.56</v>
       </c>
       <c r="AN31">
+        <v>2.56</v>
+      </c>
+      <c r="AO31">
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>1.99</v>
+      </c>
+      <c r="C32">
         <v>-0.14</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.59</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.74</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-3.24</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.54</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.57</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.02</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2.1</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1.04</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-1.2</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5.6</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-0.34</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-1.2</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-0.24</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.8</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.48</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-21.12</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.64</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.24</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-10.32</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1.28</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.96</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.08</v>
-      </c>
-      <c r="Y32">
-        <v>1.84</v>
       </c>
       <c r="Z32">
         <v>1.84</v>
       </c>
       <c r="AA32">
+        <v>1.84</v>
+      </c>
+      <c r="AB32">
         <v>2.88</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.24</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2.08</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1.52</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1.36</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-3.6</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.88</v>
-      </c>
-      <c r="AH32">
-        <v>2.24</v>
       </c>
       <c r="AI32">
         <v>2.24</v>
       </c>
       <c r="AJ32">
+        <v>2.24</v>
+      </c>
+      <c r="AK32">
         <v>2.16</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-1.92</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2.56</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2.48</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-0.0583</v>
+      </c>
+      <c r="C33">
         <v>-0.08</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.19</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.26</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-0.31</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.54</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.51</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-2.63</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.1</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.05</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-0.88</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.7763</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-7.4163</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.24</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.4</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.16</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-0.08</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-1.36</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.1927</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-0.08</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.16</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-0.24</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.0226</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-0.08</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-0.48</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-0.2626</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>3.0612</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.4946</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-2.4</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-7.2</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>3.2018</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.5582</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.16</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>4.48</v>
-      </c>
-      <c r="AL33">
-        <v>-0.08</v>
       </c>
       <c r="AM33">
         <v>-0.08</v>
@@ -4327,121 +4525,124 @@
       <c r="AN33">
         <v>-0.08</v>
       </c>
+      <c r="AO33">
+        <v>-0.08</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-0.0587</v>
+      </c>
+      <c r="C34">
         <v>-0.08</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-0.19</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.26</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.31</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.55</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.51</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-2.64</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.1</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.05</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-0.88</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.7763</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-7.4163</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.24</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2.4</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.16</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-0.08</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-1.36</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.1927</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.08</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.16</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-0.24</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-0.0547</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-0.08</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-0.48</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-0.2653</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>3.0851</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.4981</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-2.4</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-7.2</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>3.1974</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.5626</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.24</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>4.48</v>
-      </c>
-      <c r="AL34">
-        <v>-0.08</v>
       </c>
       <c r="AM34">
         <v>-0.08</v>
@@ -4449,614 +4650,629 @@
       <c r="AN34">
         <v>-0.08</v>
       </c>
+      <c r="AO34">
+        <v>-0.08</v>
+      </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>2.0513</v>
+      </c>
+      <c r="C35">
         <v>-0.1461</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-0.7015</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.9218</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-3.4935</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.0783</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-1.0346</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-2.5529</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.4061</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-1.0913</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-1.9493</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>5.704</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.6532</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-8.5984</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.0954</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>3.3475</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.7851</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>-21.0343</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.616</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-1.0255</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-10.0173</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.0996</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.9401</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-0.1717</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2.0594</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1.7529</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>2.4875</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.0922</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>5.2564</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>2.0152</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-0.8994</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-10.814</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>4.2465</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>2.7963</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>2.8272</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>2.351</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>2.6659</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>2.5069</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>2.5716</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>2.7075</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>2.0401</v>
+      </c>
+      <c r="C36">
         <v>-0.1461</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.7015</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.9218</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-3.4983</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.0715</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-1.0346</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-2.5413</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.406</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-1.0913</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-1.9493</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>5.6994</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.6532</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-8.5984</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.0954</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>3.3475</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.7843</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>-21.0343</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.6152</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-1.0239</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-10.0012</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1.0912</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.9306</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-0.1698</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2.0379</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1.7311</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>2.4583</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.0912</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>5.2158</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2.0014</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-0.8931</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-10.814</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>4.2146</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>2.7742</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>2.8051</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>2.3329</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>2.647</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>2.4893</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>2.5554</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>2.6922</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>1095000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1099000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1105050000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1099000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1105000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1097500000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1100875000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1097375000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1094500000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1093750000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1093625000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1092750000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>1091250000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1090500000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>1088875000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1087625000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1086750000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1087375000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1087000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>1084500000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1091500000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>1095000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1089250000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1112625000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>1127000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1145500000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>1171500000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1227625000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>1271625000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1269750000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>1258375000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>1256250000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>1254875000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>1263750000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>1255625000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>1270250000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>1268875000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>1291000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>1304125000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.0945</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1429</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.1045</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.1319</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1358</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.1062</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.1073</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.0988</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.098</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>-0.0411</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.1043</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.0023</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.1455</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.1279</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.1748</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.2058</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>-0.8253</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.1686</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.1635</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0142</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.1001</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.167</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.1453</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.1471</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.1659</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.2156</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1374</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.1503</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1743</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.1769</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.1506</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>-0.1268</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.2328</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.1918</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2758</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>-1.548</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.2833</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.2937</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.3197</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0.0746</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.0295</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-0.0326</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.1198</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.1261</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.0284</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-0.1148</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.1727</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.07199999999999999</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>-0.06909999999999999</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-0.012</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.3154</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.0788</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.003</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.0055</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.5139</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>-0.1246</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>-0.0338</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.0112</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.2897</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0279</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0728</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>-0.0031</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.1051</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.0329</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>-0.1039</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0.0231</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.199</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.0272</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>0.2154</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>0.2321</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.5949</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.188</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.1627</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.1479</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>1.4967</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.1467</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.2088</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.1319</v>
       </c>
     </row>
